--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal_Project\ucnuc-project\ucnuc-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC31BE-B2EC-4CAF-B576-E4130B945964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F86716-CBBD-4AD1-9803-274ED07A6FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C2316A13-9F35-4B20-8853-28EAC1CC10B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C2316A13-9F35-4B20-8853-28EAC1CC10B7}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
     <sheet name="skus" sheetId="3" r:id="rId3"/>
+    <sheet name="topping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +111,18 @@
   </si>
   <si>
     <t>ucnucImages/vvwj8hu6dsgtmhjucxtt</t>
+  </si>
+  <si>
+    <t>Trân châu</t>
+  </si>
+  <si>
+    <t>Xúc xích</t>
+  </si>
+  <si>
+    <t>TNCU</t>
+  </si>
+  <si>
+    <t>XCXH</t>
   </si>
 </sst>
 </file>
@@ -543,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7384769-CB20-4CFD-8366-FC1AED7E90F6}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -874,4 +887,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6690B3-6630-4BAE-9708-597F235A51A5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal_Project\ucnuc-project\ucnuc-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F86716-CBBD-4AD1-9803-274ED07A6FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87EB438-1893-40F2-9FA5-7565A74E3866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C2316A13-9F35-4B20-8853-28EAC1CC10B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C2316A13-9F35-4B20-8853-28EAC1CC10B7}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>XCXH</t>
+  </si>
+  <si>
+    <t>ucnucImages/tqcn0wg0jonsf0h39uc7</t>
   </si>
 </sst>
 </file>
@@ -510,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA785C6E-E7FD-4134-945A-A812F3FF3687}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7384769-CB20-4CFD-8366-FC1AED7E90F6}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +568,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
@@ -627,7 +630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,7 +646,9 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4">
@@ -748,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F573337-C12B-48AB-B17C-22D75678D00E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6690B3-6630-4BAE-9708-597F235A51A5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
